--- a/Экономика ИС/Семинар 26.10.2021 (студентам ПИ).xlsx
+++ b/Экономика ИС/Семинар 26.10.2021 (студентам ПИ).xlsx
@@ -371,7 +371,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,6 +414,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -585,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -665,15 +677,19 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -695,16 +711,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1021,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,7 +1120,7 @@
       <c r="K9" s="8">
         <v>8</v>
       </c>
-      <c r="L9" s="58" t="s">
+      <c r="L9" s="49" t="s">
         <v>56</v>
       </c>
       <c r="M9" s="9" t="s">
@@ -1114,7 +1129,7 @@
       <c r="R9" s="10"/>
     </row>
     <row r="10" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="47" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="11">
@@ -1144,7 +1159,7 @@
       <c r="K10" s="8">
         <v>200</v>
       </c>
-      <c r="L10" s="57">
+      <c r="L10" s="48">
         <v>0.1</v>
       </c>
       <c r="M10" s="13" t="s">
@@ -1402,7 +1417,7 @@
       <c r="C31" s="16"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="49" t="s">
         <v>56</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -1437,10 +1452,10 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B33" s="57">
+      <c r="B33" s="48">
         <v>0.1</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="47" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="11">
@@ -1477,14 +1492,14 @@
       <c r="B35" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="59">
+      <c r="C35" s="50">
         <f>MIRR(D33:K33,10%,10%)</f>
         <v>0.11468587748291426</v>
       </c>
       <c r="F35" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="60">
+      <c r="G35" s="51">
         <f>NPV(10%,E33:K33)+D33</f>
         <v>45.109274712065655</v>
       </c>
@@ -1513,21 +1528,21 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="53" t="s">
+      <c r="C41" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="55"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="57"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="52"/>
+      <c r="B42" s="54"/>
       <c r="C42" s="6">
         <v>1</v>
       </c>
@@ -1584,9 +1599,18 @@
       <c r="I43" s="38">
         <v>150</v>
       </c>
-      <c r="J43" s="39"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="41"/>
+      <c r="J43" s="39">
+        <f>NPV(10%,C43:I43)</f>
+        <v>114.72799207232272</v>
+      </c>
+      <c r="K43" s="40">
+        <f>IRR(C43:I43)</f>
+        <v>0.23796873206159219</v>
+      </c>
+      <c r="L43" s="41">
+        <f>J43/-NPV(10%,C43:D43)</f>
+        <v>0.5339264246442712</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
@@ -1613,9 +1637,18 @@
       <c r="I44" s="38">
         <v>200</v>
       </c>
-      <c r="J44" s="39"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="41"/>
+      <c r="J44" s="39">
+        <f>NPV(10%,C44:I44)</f>
+        <v>126.19445890837603</v>
+      </c>
+      <c r="K44" s="40">
+        <f>IRR(C44:I44)</f>
+        <v>0.21992875631426956</v>
+      </c>
+      <c r="L44" s="41">
+        <f>J44/-NPV(10%,C44:D44)</f>
+        <v>0.56553813066346303</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -1623,15 +1656,15 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
@@ -1703,36 +1736,50 @@
       <c r="N54" s="45"/>
       <c r="O54" s="45"/>
     </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>-10</v>
+      </c>
+    </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="46"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="46">
+        <f>2/8%</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="46"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="46">
+        <f>E56-10</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="50" t="s">
+      <c r="B58" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="46"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="37">
+        <f>IRR(E55:E56)</f>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
       <c r="E59" s="46"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -1741,53 +1788,90 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B61" s="6">
+      <c r="B61" s="60">
         <v>0</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="60">
         <v>1</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="60">
         <v>2</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="60">
         <v>3</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="60">
         <v>4</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61" s="60">
         <v>5</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H61" s="60">
         <v>6</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I61" s="60">
         <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
+      <c r="B62" s="59">
+        <v>-10</v>
+      </c>
+      <c r="C62" s="59">
+        <v>2</v>
+      </c>
+      <c r="D62" s="59">
+        <v>2</v>
+      </c>
+      <c r="E62" s="59">
+        <v>2</v>
+      </c>
+      <c r="F62" s="59">
+        <v>2</v>
+      </c>
+      <c r="G62" s="59">
+        <v>2</v>
+      </c>
+      <c r="H62" s="59">
+        <v>2</v>
+      </c>
+      <c r="I62" s="59">
+        <v>2</v>
+      </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B63" s="47"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="48"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="61">
+        <f>NPV(8%,C62)+$B$62</f>
+        <v>-8.1481481481481488</v>
+      </c>
+      <c r="D63" s="61">
+        <f>NPV(8%,C62:D62)+$B$62</f>
+        <v>-6.4334705075445822</v>
+      </c>
+      <c r="E63" s="61">
+        <f>NPV(8%,C62:E62)+$B$62</f>
+        <v>-4.8458060255042428</v>
+      </c>
+      <c r="F63" s="61">
+        <f>NPV(8%,C62:F62)+$B$62</f>
+        <v>-3.375746319911336</v>
+      </c>
+      <c r="G63" s="61">
+        <f>NPV(8%,C62:G62)+$B$62</f>
+        <v>-2.0145799258438304</v>
+      </c>
+      <c r="H63" s="61">
+        <f>NPV(8%,C62:H62)+$B$62</f>
+        <v>-0.75424067207762135</v>
+      </c>
+      <c r="I63" s="61">
+        <f>NPV(8%,C62:I62)+$B$62</f>
+        <v>0.41274011844664571</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
